--- a/public/files/clients.xlsx
+++ b/public/files/clients.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A57612-5732-4829-B51F-6BFC09AF35D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export" sheetId="1" r:id="rId4"/>
+    <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Codigo</t>
   </si>
@@ -23,23 +28,18 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>INFTUMAMA</t>
+    <t>INF281</t>
   </si>
   <si>
-    <t>JAJATPEZ</t>
+    <t>TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -50,28 +50,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -361,24 +370,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -395,17 +403,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>